--- a/ConsoleApplication5/componentAngle_HistogramAnalysis.xlsx
+++ b/ConsoleApplication5/componentAngle_HistogramAnalysis.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Bin</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Confidence Level(95.0%)</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -262,7 +265,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$183</c:f>
+              <c:f>Sheet1!$E$3:$E$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="181"/>
@@ -814,7 +817,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$183</c:f>
+              <c:f>Sheet1!$F$3:$F$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="181"/>
@@ -3676,13 +3679,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -4079,2205 +4082,2292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J493"/>
+  <dimension ref="A1:L493"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>153</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>86</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>2.2486187845303869</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>0.9451470852351761</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>315</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>44</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>12.715653553941591</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>44</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E9" s="1">
         <v>6</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="2">
         <v>161.68784530386742</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
-      <c r="C10" s="1">
+      <c r="E10" s="1">
         <v>7</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="2">
+      <c r="J10" s="2">
         <v>55.179865510470627</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>180</v>
       </c>
-      <c r="C11" s="1">
+      <c r="E11" s="1">
         <v>8</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="2">
+      <c r="J11" s="2">
         <v>7.092297597866323</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>333</v>
       </c>
-      <c r="C12" s="1">
+      <c r="E12" s="1">
         <v>9</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="2">
+      <c r="J12" s="2">
         <v>121</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>315</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>333</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1">
         <v>11</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="2">
+      <c r="J14" s="2">
         <v>121</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>90</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>133.61460446247463</v>
+      </c>
+      <c r="E15" s="1">
         <v>12</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="2">
+      <c r="J15" s="2">
         <v>407</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>333</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4.691135925787318</v>
+      </c>
+      <c r="E16" s="1">
         <v>13</v>
       </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="2">
+      <c r="J16" s="2">
         <v>181</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>333</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>135</v>
+      </c>
+      <c r="E17" s="1">
         <v>14</v>
       </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="2">
+      <c r="J17" s="2">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>153</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>153</v>
+      </c>
+      <c r="E18" s="1">
         <v>15</v>
       </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>90</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>104.16012117498103</v>
+      </c>
+      <c r="E19" s="1">
         <v>16</v>
       </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="3">
+      <c r="J19" s="3">
         <v>1.8649933609222802</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10849.33084318673</v>
+      </c>
+      <c r="E20" s="1">
         <v>17</v>
       </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>44</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-0.5773065823630521</v>
+      </c>
+      <c r="E21" s="1">
         <v>18</v>
       </c>
-      <c r="D21" s="2">
+      <c r="F21" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.53818331019887333</v>
+      </c>
+      <c r="E22" s="1">
         <v>19</v>
       </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>153</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2">
+        <v>333</v>
+      </c>
+      <c r="E23" s="1">
         <v>20</v>
       </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>153</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
         <v>21</v>
       </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>315</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
+        <v>333</v>
+      </c>
+      <c r="E25" s="1">
         <v>22</v>
       </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>135</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2">
+        <v>65872</v>
+      </c>
+      <c r="E26" s="1">
         <v>23</v>
       </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>135</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3">
+        <v>493</v>
+      </c>
+      <c r="E27" s="1">
         <v>24</v>
       </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>153</v>
       </c>
-      <c r="C28" s="1">
+      <c r="E28" s="1">
         <v>25</v>
       </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>333</v>
       </c>
-      <c r="C29" s="1">
+      <c r="E29" s="1">
         <v>26</v>
       </c>
-      <c r="D29" s="2">
+      <c r="F29" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>153</v>
       </c>
-      <c r="C30" s="1">
+      <c r="E30" s="1">
         <v>27</v>
       </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>315</v>
       </c>
-      <c r="C31" s="1">
+      <c r="E31" s="1">
         <v>28</v>
       </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>135</v>
       </c>
-      <c r="C32" s="1">
+      <c r="E32" s="1">
         <v>29</v>
       </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>44</v>
       </c>
-      <c r="C33" s="1">
+      <c r="E33" s="1">
         <v>30</v>
       </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>71</v>
       </c>
-      <c r="C34" s="1">
+      <c r="E34" s="1">
         <v>31</v>
       </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>90</v>
       </c>
-      <c r="C35" s="1">
+      <c r="E35" s="1">
         <v>32</v>
       </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
-      <c r="C36" s="1">
+      <c r="E36" s="1">
         <v>33</v>
       </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>71</v>
       </c>
-      <c r="C37" s="1">
+      <c r="E37" s="1">
         <v>34</v>
       </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>44</v>
       </c>
-      <c r="C38" s="1">
+      <c r="E38" s="1">
         <v>35</v>
       </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>153</v>
       </c>
-      <c r="C39" s="1">
+      <c r="E39" s="1">
         <v>36</v>
       </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>315</v>
       </c>
-      <c r="C40" s="1">
+      <c r="E40" s="1">
         <v>37</v>
       </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>135</v>
       </c>
-      <c r="C41" s="1">
+      <c r="E41" s="1">
         <v>38</v>
       </c>
-      <c r="D41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
-      <c r="C42" s="1">
+      <c r="E42" s="1">
         <v>39</v>
       </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>315</v>
       </c>
-      <c r="C43" s="1">
+      <c r="E43" s="1">
         <v>40</v>
       </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>135</v>
       </c>
-      <c r="C44" s="1">
+      <c r="E44" s="1">
         <v>41</v>
       </c>
-      <c r="D44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>26</v>
       </c>
-      <c r="C45" s="1">
+      <c r="E45" s="1">
         <v>42</v>
       </c>
-      <c r="D45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>90</v>
       </c>
-      <c r="C46" s="1">
+      <c r="E46" s="1">
         <v>43</v>
       </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
-      <c r="C47" s="1">
+      <c r="E47" s="1">
         <v>44</v>
       </c>
-      <c r="D47" s="2">
+      <c r="F47" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>153</v>
       </c>
-      <c r="C48" s="1">
+      <c r="E48" s="1">
         <v>45</v>
       </c>
-      <c r="D48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>135</v>
       </c>
-      <c r="C49" s="1">
+      <c r="E49" s="1">
         <v>46</v>
       </c>
-      <c r="D49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>333</v>
       </c>
-      <c r="C50" s="1">
+      <c r="E50" s="1">
         <v>47</v>
       </c>
-      <c r="D50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
-      <c r="C51" s="1">
+      <c r="E51" s="1">
         <v>48</v>
       </c>
-      <c r="D51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>296</v>
       </c>
-      <c r="C52" s="1">
+      <c r="E52" s="1">
         <v>49</v>
       </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
-      <c r="C53" s="1">
+      <c r="E53" s="1">
         <v>50</v>
       </c>
-      <c r="D53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>90</v>
       </c>
-      <c r="C54" s="1">
+      <c r="E54" s="1">
         <v>51</v>
       </c>
-      <c r="D54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>26</v>
       </c>
-      <c r="C55" s="1">
+      <c r="E55" s="1">
         <v>52</v>
       </c>
-      <c r="D55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>180</v>
       </c>
-      <c r="C56" s="1">
+      <c r="E56" s="1">
         <v>53</v>
       </c>
-      <c r="D56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>153</v>
       </c>
-      <c r="C57" s="1">
+      <c r="E57" s="1">
         <v>54</v>
       </c>
-      <c r="D57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>18</v>
       </c>
-      <c r="C58" s="1">
+      <c r="E58" s="1">
         <v>55</v>
       </c>
-      <c r="D58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>90</v>
       </c>
-      <c r="C59" s="1">
+      <c r="E59" s="1">
         <v>56</v>
       </c>
-      <c r="D59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>71</v>
       </c>
-      <c r="C60" s="1">
+      <c r="E60" s="1">
         <v>57</v>
       </c>
-      <c r="D60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>135</v>
       </c>
-      <c r="C61" s="1">
+      <c r="E61" s="1">
         <v>58</v>
       </c>
-      <c r="D61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>71</v>
       </c>
-      <c r="C62" s="1">
+      <c r="E62" s="1">
         <v>59</v>
       </c>
-      <c r="D62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>44</v>
       </c>
-      <c r="C63" s="1">
+      <c r="E63" s="1">
         <v>60</v>
       </c>
-      <c r="D63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>135</v>
       </c>
-      <c r="C64" s="1">
+      <c r="E64" s="1">
         <v>61</v>
       </c>
-      <c r="D64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>44</v>
       </c>
-      <c r="C65" s="1">
+      <c r="E65" s="1">
         <v>62</v>
       </c>
-      <c r="D65" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
-      <c r="C66" s="1">
+      <c r="E66" s="1">
         <v>63</v>
       </c>
-      <c r="D66" s="2">
+      <c r="F66" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>153</v>
       </c>
-      <c r="C67" s="1">
+      <c r="E67" s="1">
         <v>64</v>
       </c>
-      <c r="D67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>153</v>
       </c>
-      <c r="C68" s="1">
+      <c r="E68" s="1">
         <v>65</v>
       </c>
-      <c r="D68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>333</v>
       </c>
-      <c r="C69" s="1">
+      <c r="E69" s="1">
         <v>66</v>
       </c>
-      <c r="D69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>180</v>
       </c>
-      <c r="C70" s="1">
+      <c r="E70" s="1">
         <v>67</v>
       </c>
-      <c r="D70" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>153</v>
       </c>
-      <c r="C71" s="1">
+      <c r="E71" s="1">
         <v>68</v>
       </c>
-      <c r="D71" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>153</v>
       </c>
-      <c r="C72" s="1">
+      <c r="E72" s="1">
         <v>69</v>
       </c>
-      <c r="D72" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0</v>
       </c>
-      <c r="C73" s="1">
+      <c r="E73" s="1">
         <v>70</v>
       </c>
-      <c r="D73" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>135</v>
       </c>
-      <c r="C74" s="1">
+      <c r="E74" s="1">
         <v>71</v>
       </c>
-      <c r="D74" s="2">
+      <c r="F74" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>135</v>
       </c>
-      <c r="C75" s="1">
+      <c r="E75" s="1">
         <v>72</v>
       </c>
-      <c r="D75" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>315</v>
       </c>
-      <c r="C76" s="1">
+      <c r="E76" s="1">
         <v>73</v>
       </c>
-      <c r="D76" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>153</v>
       </c>
-      <c r="C77" s="1">
+      <c r="E77" s="1">
         <v>74</v>
       </c>
-      <c r="D77" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>153</v>
       </c>
-      <c r="C78" s="1">
+      <c r="E78" s="1">
         <v>75</v>
       </c>
-      <c r="D78" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>90</v>
       </c>
-      <c r="C79" s="1">
+      <c r="E79" s="1">
         <v>76</v>
       </c>
-      <c r="D79" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>44</v>
       </c>
-      <c r="C80" s="1">
+      <c r="E80" s="1">
         <v>77</v>
       </c>
-      <c r="D80" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>153</v>
       </c>
-      <c r="C81" s="1">
+      <c r="E81" s="1">
         <v>78</v>
       </c>
-      <c r="D81" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>333</v>
       </c>
-      <c r="C82" s="1">
+      <c r="E82" s="1">
         <v>79</v>
       </c>
-      <c r="D82" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0</v>
       </c>
-      <c r="C83" s="1">
+      <c r="E83" s="1">
         <v>80</v>
       </c>
-      <c r="D83" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>180</v>
       </c>
-      <c r="C84" s="1">
+      <c r="E84" s="1">
         <v>81</v>
       </c>
-      <c r="D84" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0</v>
       </c>
-      <c r="C85" s="1">
+      <c r="E85" s="1">
         <v>82</v>
       </c>
-      <c r="D85" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0</v>
       </c>
-      <c r="C86" s="1">
+      <c r="E86" s="1">
         <v>83</v>
       </c>
-      <c r="D86" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>153</v>
       </c>
-      <c r="C87" s="1">
+      <c r="E87" s="1">
         <v>84</v>
       </c>
-      <c r="D87" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>315</v>
       </c>
-      <c r="C88" s="1">
+      <c r="E88" s="1">
         <v>85</v>
       </c>
-      <c r="D88" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>153</v>
       </c>
-      <c r="C89" s="1">
+      <c r="E89" s="1">
         <v>86</v>
       </c>
-      <c r="D89" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>71</v>
       </c>
-      <c r="C90" s="1">
+      <c r="E90" s="1">
         <v>87</v>
       </c>
-      <c r="D90" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>153</v>
       </c>
-      <c r="C91" s="1">
+      <c r="E91" s="1">
         <v>88</v>
       </c>
-      <c r="D91" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>153</v>
       </c>
-      <c r="C92" s="1">
+      <c r="E92" s="1">
         <v>89</v>
       </c>
-      <c r="D92" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>44</v>
       </c>
-      <c r="C93" s="1">
+      <c r="E93" s="1">
         <v>90</v>
       </c>
-      <c r="D93" s="2">
+      <c r="F93" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>135</v>
       </c>
-      <c r="C94" s="1">
+      <c r="E94" s="1">
         <v>91</v>
       </c>
-      <c r="D94" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>18</v>
       </c>
-      <c r="C95" s="1">
+      <c r="E95" s="1">
         <v>92</v>
       </c>
-      <c r="D95" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>315</v>
       </c>
-      <c r="C96" s="1">
+      <c r="E96" s="1">
         <v>93</v>
       </c>
-      <c r="D96" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>135</v>
       </c>
-      <c r="C97" s="1">
+      <c r="E97" s="1">
         <v>94</v>
       </c>
-      <c r="D97" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>153</v>
       </c>
-      <c r="C98" s="1">
+      <c r="E98" s="1">
         <v>95</v>
       </c>
-      <c r="D98" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>71</v>
       </c>
-      <c r="C99" s="1">
+      <c r="E99" s="1">
         <v>96</v>
       </c>
-      <c r="D99" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>44</v>
       </c>
-      <c r="C100" s="1">
+      <c r="E100" s="1">
         <v>97</v>
       </c>
-      <c r="D100" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>135</v>
       </c>
-      <c r="C101" s="1">
+      <c r="E101" s="1">
         <v>98</v>
       </c>
-      <c r="D101" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>153</v>
       </c>
-      <c r="C102" s="1">
+      <c r="E102" s="1">
         <v>99</v>
       </c>
-      <c r="D102" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0</v>
       </c>
-      <c r="C103" s="1">
+      <c r="E103" s="1">
         <v>100</v>
       </c>
-      <c r="D103" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0</v>
       </c>
-      <c r="C104" s="1">
+      <c r="E104" s="1">
         <v>101</v>
       </c>
-      <c r="D104" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>153</v>
       </c>
-      <c r="C105" s="1">
+      <c r="E105" s="1">
         <v>102</v>
       </c>
-      <c r="D105" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>153</v>
       </c>
-      <c r="C106" s="1">
+      <c r="E106" s="1">
         <v>103</v>
       </c>
-      <c r="D106" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>180</v>
       </c>
-      <c r="C107" s="1">
+      <c r="E107" s="1">
         <v>104</v>
       </c>
-      <c r="D107" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>153</v>
       </c>
-      <c r="C108" s="1">
+      <c r="E108" s="1">
         <v>105</v>
       </c>
-      <c r="D108" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>0</v>
       </c>
-      <c r="C109" s="1">
+      <c r="E109" s="1">
         <v>106</v>
       </c>
-      <c r="D109" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>315</v>
       </c>
-      <c r="C110" s="1">
+      <c r="E110" s="1">
         <v>107</v>
       </c>
-      <c r="D110" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>44</v>
       </c>
-      <c r="C111" s="1">
+      <c r="E111" s="1">
         <v>108</v>
       </c>
-      <c r="D111" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>180</v>
       </c>
-      <c r="C112" s="1">
+      <c r="E112" s="1">
         <v>109</v>
       </c>
-      <c r="D112" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>153</v>
       </c>
-      <c r="C113" s="1">
+      <c r="E113" s="1">
         <v>110</v>
       </c>
-      <c r="D113" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>153</v>
       </c>
-      <c r="C114" s="1">
+      <c r="E114" s="1">
         <v>111</v>
       </c>
-      <c r="D114" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>153</v>
       </c>
-      <c r="C115" s="1">
+      <c r="E115" s="1">
         <v>112</v>
       </c>
-      <c r="D115" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>180</v>
       </c>
-      <c r="C116" s="1">
+      <c r="E116" s="1">
         <v>113</v>
       </c>
-      <c r="D116" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>153</v>
       </c>
-      <c r="C117" s="1">
+      <c r="E117" s="1">
         <v>114</v>
       </c>
-      <c r="D117" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>315</v>
       </c>
-      <c r="C118" s="1">
+      <c r="E118" s="1">
         <v>115</v>
       </c>
-      <c r="D118" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>153</v>
       </c>
-      <c r="C119" s="1">
+      <c r="E119" s="1">
         <v>116</v>
       </c>
-      <c r="D119" s="2">
+      <c r="F119" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>0</v>
       </c>
-      <c r="C120" s="1">
+      <c r="E120" s="1">
         <v>117</v>
       </c>
-      <c r="D120" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>315</v>
       </c>
-      <c r="C121" s="1">
+      <c r="E121" s="1">
         <v>118</v>
       </c>
-      <c r="D121" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0</v>
       </c>
-      <c r="C122" s="1">
+      <c r="E122" s="1">
         <v>119</v>
       </c>
-      <c r="D122" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>315</v>
       </c>
-      <c r="C123" s="1">
+      <c r="E123" s="1">
         <v>120</v>
       </c>
-      <c r="D123" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>153</v>
       </c>
-      <c r="C124" s="1">
+      <c r="E124" s="1">
         <v>121</v>
       </c>
-      <c r="D124" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F124" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>153</v>
       </c>
-      <c r="C125" s="1">
+      <c r="E125" s="1">
         <v>122</v>
       </c>
-      <c r="D125" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>153</v>
       </c>
-      <c r="C126" s="1">
+      <c r="E126" s="1">
         <v>123</v>
       </c>
-      <c r="D126" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>315</v>
       </c>
-      <c r="C127" s="1">
+      <c r="E127" s="1">
         <v>124</v>
       </c>
-      <c r="D127" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>44</v>
       </c>
-      <c r="C128" s="1">
+      <c r="E128" s="1">
         <v>125</v>
       </c>
-      <c r="D128" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
-      <c r="C129" s="1">
+      <c r="E129" s="1">
         <v>126</v>
       </c>
-      <c r="D129" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>135</v>
       </c>
-      <c r="C130" s="1">
+      <c r="E130" s="1">
         <v>127</v>
       </c>
-      <c r="D130" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>153</v>
       </c>
-      <c r="C131" s="1">
+      <c r="E131" s="1">
         <v>128</v>
       </c>
-      <c r="D131" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>333</v>
       </c>
-      <c r="C132" s="1">
+      <c r="E132" s="1">
         <v>129</v>
       </c>
-      <c r="D132" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>153</v>
       </c>
-      <c r="C133" s="1">
+      <c r="E133" s="1">
         <v>130</v>
       </c>
-      <c r="D133" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>315</v>
       </c>
-      <c r="C134" s="1">
+      <c r="E134" s="1">
         <v>131</v>
       </c>
-      <c r="D134" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>18</v>
       </c>
-      <c r="C135" s="1">
+      <c r="E135" s="1">
         <v>132</v>
       </c>
-      <c r="D135" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F135" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>153</v>
       </c>
-      <c r="C136" s="1">
+      <c r="E136" s="1">
         <v>133</v>
       </c>
-      <c r="D136" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>0</v>
       </c>
-      <c r="C137" s="1">
+      <c r="E137" s="1">
         <v>134</v>
       </c>
-      <c r="D137" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>135</v>
       </c>
-      <c r="C138" s="1">
+      <c r="E138" s="1">
         <v>135</v>
       </c>
-      <c r="D138" s="2">
+      <c r="F138" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>153</v>
       </c>
-      <c r="C139" s="1">
+      <c r="E139" s="1">
         <v>136</v>
       </c>
-      <c r="D139" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>116</v>
       </c>
-      <c r="C140" s="1">
+      <c r="E140" s="1">
         <v>137</v>
       </c>
-      <c r="D140" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F140" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>44</v>
       </c>
-      <c r="C141" s="1">
+      <c r="E141" s="1">
         <v>138</v>
       </c>
-      <c r="D141" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>333</v>
       </c>
-      <c r="C142" s="1">
+      <c r="E142" s="1">
         <v>139</v>
       </c>
-      <c r="D142" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F142" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>153</v>
       </c>
-      <c r="C143" s="1">
+      <c r="E143" s="1">
         <v>140</v>
       </c>
-      <c r="D143" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>153</v>
       </c>
-      <c r="C144" s="1">
+      <c r="E144" s="1">
         <v>141</v>
       </c>
-      <c r="D144" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>180</v>
       </c>
-      <c r="C145" s="1">
+      <c r="E145" s="1">
         <v>142</v>
       </c>
-      <c r="D145" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>90</v>
       </c>
-      <c r="C146" s="1">
+      <c r="E146" s="1">
         <v>143</v>
       </c>
-      <c r="D146" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F146" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>0</v>
       </c>
-      <c r="C147" s="1">
+      <c r="E147" s="1">
         <v>144</v>
       </c>
-      <c r="D147" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>315</v>
       </c>
-      <c r="C148" s="1">
+      <c r="E148" s="1">
         <v>145</v>
       </c>
-      <c r="D148" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>0</v>
       </c>
-      <c r="C149" s="1">
+      <c r="E149" s="1">
         <v>146</v>
       </c>
-      <c r="D149" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>315</v>
       </c>
-      <c r="C150" s="1">
+      <c r="E150" s="1">
         <v>147</v>
       </c>
-      <c r="D150" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>0</v>
       </c>
-      <c r="C151" s="1">
+      <c r="E151" s="1">
         <v>148</v>
       </c>
-      <c r="D151" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>180</v>
       </c>
-      <c r="C152" s="1">
+      <c r="E152" s="1">
         <v>149</v>
       </c>
-      <c r="D152" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>71</v>
       </c>
-      <c r="C153" s="1">
+      <c r="E153" s="1">
         <v>150</v>
       </c>
-      <c r="D153" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F153" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>0</v>
       </c>
-      <c r="C154" s="1">
+      <c r="E154" s="1">
         <v>151</v>
       </c>
-      <c r="D154" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F154" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>44</v>
       </c>
-      <c r="C155" s="1">
+      <c r="E155" s="1">
         <v>152</v>
       </c>
-      <c r="D155" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>26</v>
       </c>
-      <c r="C156" s="1">
-        <v>153</v>
-      </c>
-      <c r="D156" s="2">
+      <c r="E156" s="1">
+        <v>153</v>
+      </c>
+      <c r="F156" s="2">
         <v>121</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>333</v>
       </c>
-      <c r="C157" s="1">
+      <c r="E157" s="1">
         <v>154</v>
       </c>
-      <c r="D157" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F157" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>153</v>
       </c>
-      <c r="C158" s="1">
+      <c r="E158" s="1">
         <v>155</v>
       </c>
-      <c r="D158" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F158" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>153</v>
       </c>
-      <c r="C159" s="1">
+      <c r="E159" s="1">
         <v>156</v>
       </c>
-      <c r="D159" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>135</v>
       </c>
-      <c r="C160" s="1">
+      <c r="E160" s="1">
         <v>157</v>
       </c>
-      <c r="D160" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F160" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>71</v>
       </c>
-      <c r="C161" s="1">
+      <c r="E161" s="1">
         <v>158</v>
       </c>
-      <c r="D161" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F161" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>26</v>
       </c>
-      <c r="C162" s="1">
+      <c r="E162" s="1">
         <v>159</v>
       </c>
-      <c r="D162" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F162" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>0</v>
       </c>
-      <c r="C163" s="1">
+      <c r="E163" s="1">
         <v>160</v>
       </c>
-      <c r="D163" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>333</v>
       </c>
-      <c r="C164" s="1">
+      <c r="E164" s="1">
         <v>161</v>
       </c>
-      <c r="D164" s="2">
+      <c r="F164" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>333</v>
       </c>
-      <c r="C165" s="1">
+      <c r="E165" s="1">
         <v>162</v>
       </c>
-      <c r="D165" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F165" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>153</v>
       </c>
-      <c r="C166" s="1">
+      <c r="E166" s="1">
         <v>163</v>
       </c>
-      <c r="D166" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>135</v>
       </c>
-      <c r="C167" s="1">
+      <c r="E167" s="1">
         <v>164</v>
       </c>
-      <c r="D167" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F167" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>315</v>
       </c>
-      <c r="C168" s="1">
+      <c r="E168" s="1">
         <v>165</v>
       </c>
-      <c r="D168" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F168" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>153</v>
       </c>
-      <c r="C169" s="1">
+      <c r="E169" s="1">
         <v>166</v>
       </c>
-      <c r="D169" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F169" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>0</v>
       </c>
-      <c r="C170" s="1">
+      <c r="E170" s="1">
         <v>167</v>
       </c>
-      <c r="D170" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F170" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>180</v>
       </c>
-      <c r="C171" s="1">
+      <c r="E171" s="1">
         <v>168</v>
       </c>
-      <c r="D171" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F171" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>180</v>
       </c>
-      <c r="C172" s="1">
+      <c r="E172" s="1">
         <v>169</v>
       </c>
-      <c r="D172" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F172" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>135</v>
       </c>
-      <c r="C173" s="1">
+      <c r="E173" s="1">
         <v>170</v>
       </c>
-      <c r="D173" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F173" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>135</v>
       </c>
-      <c r="C174" s="1">
+      <c r="E174" s="1">
         <v>171</v>
       </c>
-      <c r="D174" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F174" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>315</v>
       </c>
-      <c r="C175" s="1">
+      <c r="E175" s="1">
         <v>172</v>
       </c>
-      <c r="D175" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F175" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>153</v>
       </c>
-      <c r="C176" s="1">
+      <c r="E176" s="1">
         <v>173</v>
       </c>
-      <c r="D176" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F176" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>90</v>
       </c>
-      <c r="C177" s="1">
+      <c r="E177" s="1">
         <v>174</v>
       </c>
-      <c r="D177" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F177" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>90</v>
       </c>
-      <c r="C178" s="1">
+      <c r="E178" s="1">
         <v>175</v>
       </c>
-      <c r="D178" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F178" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>90</v>
       </c>
-      <c r="C179" s="1">
+      <c r="E179" s="1">
         <v>176</v>
       </c>
-      <c r="D179" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F179" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>135</v>
       </c>
-      <c r="C180" s="1">
+      <c r="E180" s="1">
         <v>177</v>
       </c>
-      <c r="D180" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F180" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>315</v>
       </c>
-      <c r="C181" s="1">
+      <c r="E181" s="1">
         <v>178</v>
       </c>
-      <c r="D181" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F181" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>135</v>
       </c>
-      <c r="C182" s="1">
+      <c r="E182" s="1">
         <v>179</v>
       </c>
-      <c r="D182" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F182" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>44</v>
       </c>
-      <c r="C183" s="1">
+      <c r="E183" s="1">
         <v>180</v>
       </c>
-      <c r="D183" s="2">
+      <c r="F183" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>0</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="E184" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D184" s="3">
+      <c r="F184" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>153</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>153</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>153</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>71</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>153</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>315</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>153</v>
       </c>
@@ -7788,8 +7878,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C3:C183">
-    <sortCondition ref="C3"/>
+  <sortState ref="E3:E183">
+    <sortCondition ref="E3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="7" orientation="portrait" verticalDpi="0" copies="0" r:id="rId1"/>
